--- a/CompromisedPWList.xlsx
+++ b/CompromisedPWList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\passwordcheck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erickollmann\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49484EF7-6421-44F8-8483-E921DB513CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49F5E0B-F7AD-4000-9835-C01526F6445B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1230" yWindow="3825" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,27 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -266,8 +286,13 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -569,7 +594,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -616,7 +641,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="b">
-        <f>EXACT(C2,C1)</f>
+        <f t="shared" ref="E2:E8" si="0">EXACT(C2,C1)</f>
         <v>0</v>
       </c>
       <c r="F2" t="b">
@@ -638,7 +663,7 @@
         <v>26</v>
       </c>
       <c r="E3" t="b">
-        <f>EXACT(C3,C2)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F3" t="b">
@@ -660,7 +685,7 @@
         <v>26</v>
       </c>
       <c r="E4" t="b">
-        <f>EXACT(C4,C3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" t="b">
@@ -682,7 +707,7 @@
         <v>26</v>
       </c>
       <c r="E5" t="b">
-        <f>EXACT(C5,C4)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5" t="b">
@@ -704,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="E6" t="b">
-        <f>EXACT(C6,C5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" t="b">
@@ -726,7 +751,7 @@
         <v>26</v>
       </c>
       <c r="E7" t="b">
-        <f>EXACT(C7,C6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F7" t="b">
@@ -748,7 +773,7 @@
         <v>26</v>
       </c>
       <c r="E8" t="b">
-        <f>EXACT(C8,C7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8" t="b">
@@ -763,24 +788,19 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="mail.boisestate.edu">
-      <formula>NOT(ISERROR(SEARCH("mail.boisestate.edu",B1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1163,7 +1183,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A7">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{76EE0F47-DE6A-46B0-A602-68B5C6BC1A9B}"/>
